--- a/Template/EC_Template.xlsx
+++ b/Template/EC_Template.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EC_Template" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="EC_Prism_Template" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t xml:space="preserve">Exact Cover</t>
   </si>
@@ -68,6 +69,12 @@
   </si>
   <si>
     <t xml:space="preserve">CTL Runtime (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prism No Tag File Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prob for EC</t>
   </si>
 </sst>
 </file>
@@ -165,36 +172,33 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="7.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -325,4 +329,88 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="7.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Template/EC_Template.xlsx
+++ b/Template/EC_Template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t xml:space="preserve">Exact Cover</t>
   </si>
@@ -74,7 +74,16 @@
     <t xml:space="preserve">Prism No Tag File Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Prob for EC</t>
+    <t xml:space="preserve">EC Exists with mu=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prob for EC with mu=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC Exists with mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prob for EC with mu</t>
   </si>
 </sst>
 </file>
@@ -193,7 +202,7 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
@@ -336,17 +345,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="7.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="7.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.18"/>
   </cols>
   <sheetData>
@@ -360,6 +371,8 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -378,10 +391,16 @@
         <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -392,11 +411,13 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -404,6 +425,8 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Template/EC_Template.xlsx
+++ b/Template/EC_Template.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t xml:space="preserve">Exact Cover</t>
   </si>
@@ -71,13 +71,16 @@
     <t xml:space="preserve">CTL Runtime (ms)</t>
   </si>
   <si>
-    <t xml:space="preserve">Prism No Tag File Name</t>
+    <t xml:space="preserve">Prism File Name</t>
   </si>
   <si>
     <t xml:space="preserve">EC Exists with mu=0</t>
   </si>
   <si>
     <t xml:space="preserve">Prob for EC with mu=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runtime (ms)</t>
   </si>
   <si>
     <t xml:space="preserve">EC Exists with mu</t>
@@ -345,20 +348,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="L17" activeCellId="0" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="7.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="13.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -373,6 +377,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -401,6 +407,12 @@
       </c>
       <c r="I2" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,11 +425,12 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -427,6 +440,8 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
